--- a/Framework/TestData/TestData.xlsx
+++ b/Framework/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\Framework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\git\Framework\Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1469D47-A506-41C8-A062-4CE60FFB53C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{599A5A3D-8106-49E5-A559-B8E689E64D9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>suhaibuk448@gmail.com</t>
   </si>
   <si>
     <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>suhaib</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>contactname</t>
+  </si>
+  <si>
+    <t>Middle name(s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +88,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,9 +117,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,31 +404,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{D2A06344-86BF-4B47-B2E3-CC6F9CEC0623}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{594B9969-4C00-40E2-A399-63A2629ABB02}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D2A06344-86BF-4B47-B2E3-CC6F9CEC0623}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{594B9969-4C00-40E2-A399-63A2629ABB02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Framework/TestData/TestData.xlsx
+++ b/Framework/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\git\Framework\Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{599A5A3D-8106-49E5-A559-B8E689E64D9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D73ED-C458-4169-B26F-E2D8A261BAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>suhaibuk448@gmail.com</t>
   </si>
@@ -407,7 +407,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
